--- a/src/main/resources/gcms_excels/CorrectInfo_CompoundsRT-RI.xlsx
+++ b/src/main/resources/gcms_excels/CorrectInfo_CompoundsRT-RI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marta\Documents\Uni\Biomedica_TFG\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marta\Documents\IntelliJ\CEMS_project_Pruebas\src\main\resources\gcms_excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1ADA5A-6542-49FB-9C45-73F97D43C327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BFCAC9-F870-4EFB-81CE-71ED22F7289C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,8 +59,140 @@
     </r>
   </si>
   <si>
+    <t>Dimethylsulfide</t>
+  </si>
+  <si>
+    <t>Propan-2-one</t>
+  </si>
+  <si>
+    <t>Iso-Valeraldehyde</t>
+  </si>
+  <si>
+    <t>Pentanal</t>
+  </si>
+  <si>
+    <t>3-Methyl-3-buten-2-one</t>
+  </si>
+  <si>
+    <t>(-)-alpha-Pinene</t>
+  </si>
+  <si>
+    <t>Caproaldehyde</t>
+  </si>
+  <si>
+    <t>beta-Pinene</t>
+  </si>
+  <si>
+    <t>Butan-1-ol</t>
+  </si>
+  <si>
+    <t>heptan-2-one</t>
+  </si>
+  <si>
+    <t>Polylimonene</t>
+  </si>
+  <si>
+    <t>6-Methylheptan-2-one</t>
+  </si>
+  <si>
+    <t>Octan-2-one</t>
+  </si>
+  <si>
+    <t>Caprylaldehyde</t>
+  </si>
+  <si>
+    <t>6-Methyl-5-hepten-2-one</t>
+  </si>
+  <si>
+    <t>Hexan-1-ol</t>
+  </si>
+  <si>
+    <t>Nonan-2-one</t>
+  </si>
+  <si>
+    <t>Acetic acid</t>
+  </si>
+  <si>
+    <t>Decan-2-one</t>
+  </si>
+  <si>
+    <t>Benzaldehyde</t>
+  </si>
+  <si>
+    <t>Propionic acid</t>
+  </si>
+  <si>
+    <t>n-octanol</t>
+  </si>
+  <si>
+    <t>Isobutyric acid</t>
+  </si>
+  <si>
+    <t>undecan-2-one</t>
+  </si>
+  <si>
+    <t>Beta-Caryophyllene</t>
+  </si>
+  <si>
+    <t>Cyclohexanone, 4-hydroxy-4-methyl-</t>
+  </si>
+  <si>
+    <t>Butyric acid</t>
+  </si>
+  <si>
+    <t>(-)-Menthol</t>
+  </si>
+  <si>
+    <t>Acetophenone</t>
+  </si>
+  <si>
+    <t>Isovaleric acid</t>
+  </si>
+  <si>
+    <t>alpha-methyl butyric Acid</t>
+  </si>
+  <si>
+    <t>Valeric acid</t>
+  </si>
+  <si>
+    <t>Caproic acid</t>
+  </si>
+  <si>
+    <t>6,10-Dimethyl-5(E),9-undecadien-2-one</t>
+  </si>
+  <si>
+    <t>Heptylic acid</t>
+  </si>
+  <si>
+    <t>phenol</t>
+  </si>
+  <si>
+    <t>Caprylic acid</t>
+  </si>
+  <si>
+    <t>p-Cresol</t>
+  </si>
+  <si>
+    <t>Pelargonic acid</t>
+  </si>
+  <si>
+    <t>Capric acid</t>
+  </si>
+  <si>
+    <t>1H-Pyrrole-2,5-dione, 3-ethyl-4-methyl-</t>
+  </si>
+  <si>
+    <t>Caryophylla-4(12),8(13)-dien-5.alpha.-ol</t>
+  </si>
+  <si>
+    <t>Indole</t>
+  </si>
+  <si>
+    <t>2-Methylindole</t>
+  </si>
+  <si>
     <r>
-      <t>IR</t>
+      <t>RI</t>
     </r>
     <r>
       <rPr>
@@ -74,138 +206,6 @@
       </rPr>
       <t>calc</t>
     </r>
-  </si>
-  <si>
-    <t>Dimethylsulfide</t>
-  </si>
-  <si>
-    <t>Propan-2-one</t>
-  </si>
-  <si>
-    <t>Iso-Valeraldehyde</t>
-  </si>
-  <si>
-    <t>Pentanal</t>
-  </si>
-  <si>
-    <t>3-Methyl-3-buten-2-one</t>
-  </si>
-  <si>
-    <t>(-)-alpha-Pinene</t>
-  </si>
-  <si>
-    <t>Caproaldehyde</t>
-  </si>
-  <si>
-    <t>beta-Pinene</t>
-  </si>
-  <si>
-    <t>Butan-1-ol</t>
-  </si>
-  <si>
-    <t>heptan-2-one</t>
-  </si>
-  <si>
-    <t>Polylimonene</t>
-  </si>
-  <si>
-    <t>6-Methylheptan-2-one</t>
-  </si>
-  <si>
-    <t>Octan-2-one</t>
-  </si>
-  <si>
-    <t>Caprylaldehyde</t>
-  </si>
-  <si>
-    <t>6-Methyl-5-hepten-2-one</t>
-  </si>
-  <si>
-    <t>Hexan-1-ol</t>
-  </si>
-  <si>
-    <t>Nonan-2-one</t>
-  </si>
-  <si>
-    <t>Acetic acid</t>
-  </si>
-  <si>
-    <t>Decan-2-one</t>
-  </si>
-  <si>
-    <t>Benzaldehyde</t>
-  </si>
-  <si>
-    <t>Propionic acid</t>
-  </si>
-  <si>
-    <t>n-octanol</t>
-  </si>
-  <si>
-    <t>Isobutyric acid</t>
-  </si>
-  <si>
-    <t>undecan-2-one</t>
-  </si>
-  <si>
-    <t>Beta-Caryophyllene</t>
-  </si>
-  <si>
-    <t>Cyclohexanone, 4-hydroxy-4-methyl-</t>
-  </si>
-  <si>
-    <t>Butyric acid</t>
-  </si>
-  <si>
-    <t>(-)-Menthol</t>
-  </si>
-  <si>
-    <t>Acetophenone</t>
-  </si>
-  <si>
-    <t>Isovaleric acid</t>
-  </si>
-  <si>
-    <t>alpha-methyl butyric Acid</t>
-  </si>
-  <si>
-    <t>Valeric acid</t>
-  </si>
-  <si>
-    <t>Caproic acid</t>
-  </si>
-  <si>
-    <t>6,10-Dimethyl-5(E),9-undecadien-2-one</t>
-  </si>
-  <si>
-    <t>Heptylic acid</t>
-  </si>
-  <si>
-    <t>phenol</t>
-  </si>
-  <si>
-    <t>Caprylic acid</t>
-  </si>
-  <si>
-    <t>p-Cresol</t>
-  </si>
-  <si>
-    <t>Pelargonic acid</t>
-  </si>
-  <si>
-    <t>Capric acid</t>
-  </si>
-  <si>
-    <t>1H-Pyrrole-2,5-dione, 3-ethyl-4-methyl-</t>
-  </si>
-  <si>
-    <t>Caryophylla-4(12),8(13)-dien-5.alpha.-ol</t>
-  </si>
-  <si>
-    <t>Indole</t>
-  </si>
-  <si>
-    <t>2-Methylindole</t>
   </si>
 </sst>
 </file>
@@ -347,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -379,16 +379,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -674,7 +671,7 @@
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,19 +683,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>1.831</v>
@@ -708,8 +705,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>4</v>
+      <c r="A3" s="13" t="s">
+        <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>2.1389999999999998</v>
@@ -719,8 +716,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>5</v>
+      <c r="A4" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>3.0249999999999999</v>
@@ -730,8 +727,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>6</v>
+      <c r="A5" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="B5" s="2">
         <v>3.9260000000000002</v>
@@ -741,8 +738,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>7</v>
+      <c r="A6" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="B6" s="2">
         <v>4.1429999999999998</v>
@@ -752,8 +749,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>8</v>
+      <c r="A7" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>4.5369999999999999</v>
@@ -763,8 +760,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>9</v>
+      <c r="A8" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="B8" s="2">
         <v>5.6740000000000004</v>
@@ -774,8 +771,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>10</v>
+      <c r="A9" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="2">
         <v>5.9340000000000002</v>
@@ -785,8 +782,8 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>11</v>
+      <c r="A10" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="B10" s="2">
         <v>6.8630000000000004</v>
@@ -796,8 +793,8 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>12</v>
+      <c r="A11" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="B11" s="2">
         <v>7.4269999999999996</v>
@@ -807,8 +804,8 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>13</v>
+      <c r="A12" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="B12" s="2">
         <v>7.6189999999999998</v>
@@ -818,8 +815,8 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>14</v>
+      <c r="A13" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="B13" s="2">
         <v>8.3320000000000007</v>
@@ -829,8 +826,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>15</v>
+      <c r="A14" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="B14" s="2">
         <v>9.0879999999999992</v>
@@ -840,8 +837,8 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>16</v>
+      <c r="A15" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="B15" s="2">
         <v>9.1549999999999994</v>
@@ -851,8 +848,8 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>17</v>
+      <c r="A16" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="B16" s="2">
         <v>9.907</v>
@@ -862,8 +859,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>18</v>
+      <c r="A17" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="B17" s="2">
         <v>10.119</v>
@@ -873,8 +870,8 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>19</v>
+      <c r="A18" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="B18" s="2">
         <v>10.624000000000001</v>
@@ -884,8 +881,8 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>20</v>
+      <c r="A19" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="B19" s="5">
         <v>11.722</v>
@@ -895,8 +892,8 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>21</v>
+      <c r="A20" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="B20" s="2">
         <v>12.045</v>
@@ -906,8 +903,8 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>22</v>
+      <c r="A21" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="B21" s="2">
         <v>12.541</v>
@@ -917,8 +914,8 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>23</v>
+      <c r="A22" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="B22" s="2">
         <v>12.805999999999999</v>
@@ -928,8 +925,8 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>24</v>
+      <c r="A23" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="B23" s="2">
         <v>12.853999999999999</v>
@@ -939,8 +936,8 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>25</v>
+      <c r="A24" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="B24" s="2">
         <v>13.151999999999999</v>
@@ -950,8 +947,8 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>26</v>
+      <c r="A25" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="B25" s="2">
         <v>13.374000000000001</v>
@@ -961,8 +958,8 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>27</v>
+      <c r="A26" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="B26" s="2">
         <v>13.407999999999999</v>
@@ -973,7 +970,7 @@
     </row>
     <row r="27" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2">
         <v>13.504</v>
@@ -983,8 +980,8 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>29</v>
+      <c r="A28" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="B28" s="2">
         <v>13.879</v>
@@ -994,8 +991,8 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>30</v>
+      <c r="A29" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="B29" s="2">
         <v>13.888999999999999</v>
@@ -1005,8 +1002,8 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>31</v>
+      <c r="A30" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="B30" s="2">
         <v>14.115</v>
@@ -1016,8 +1013,8 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>32</v>
+      <c r="A31" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="B31" s="2">
         <v>14.361000000000001</v>
@@ -1027,8 +1024,8 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>33</v>
+      <c r="A32" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="B32" s="2">
         <v>14.371</v>
@@ -1038,8 +1035,8 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>34</v>
+      <c r="A33" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="B33" s="2">
         <v>15.151</v>
@@ -1049,8 +1046,8 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>35</v>
+      <c r="A34" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="B34" s="7">
         <v>16.321000000000002</v>
@@ -1060,8 +1057,8 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>36</v>
+      <c r="A35" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="B35" s="7">
         <v>16.321000000000002</v>
@@ -1071,8 +1068,8 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>37</v>
+      <c r="A36" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="B36" s="2">
         <v>17.428000000000001</v>
@@ -1082,8 +1079,8 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>38</v>
+      <c r="A37" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="B37" s="2">
         <v>18.04</v>
@@ -1093,8 +1090,8 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
-        <v>39</v>
+      <c r="A38" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="B38" s="5">
         <v>18.492000000000001</v>
@@ -1104,8 +1101,8 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
-        <v>40</v>
+      <c r="A39" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="B39" s="5">
         <v>18.751999999999999</v>
@@ -1115,8 +1112,8 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
-        <v>41</v>
+      <c r="A40" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="B40" s="5">
         <v>19.504000000000001</v>
@@ -1126,8 +1123,8 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
-        <v>42</v>
+      <c r="A41" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="B41" s="5">
         <v>20.466999999999999</v>
@@ -1137,8 +1134,8 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
-        <v>43</v>
+      <c r="A42" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="B42" s="5">
         <v>20.51</v>
@@ -1149,7 +1146,7 @@
     </row>
     <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="5">
         <v>20.712</v>
@@ -1159,8 +1156,8 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
-        <v>45</v>
+      <c r="A44" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="B44" s="5">
         <v>22.094000000000001</v>
@@ -1170,8 +1167,8 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
-        <v>46</v>
+      <c r="A45" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="B45" s="5">
         <v>23.3</v>
